--- a/data/detalle_entregas.xlsx
+++ b/data/detalle_entregas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,32 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>tomate</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cebolla</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/detalle_entregas.xlsx
+++ b/data/detalle_entregas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>cantidad</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>conforme</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -462,6 +467,7 @@
       <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -475,6 +481,7 @@
       <c r="C3" t="n">
         <v>15</v>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +495,7 @@
       <c r="C4" t="n">
         <v>9</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -501,6 +509,7 @@
       <c r="C5" t="n">
         <v>11</v>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -514,6 +523,7 @@
       <c r="C6" t="n">
         <v>14</v>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -527,6 +537,7 @@
       <c r="C7" t="n">
         <v>20</v>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -540,6 +551,7 @@
       <c r="C8" t="n">
         <v>21</v>
       </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -553,6 +565,7 @@
       <c r="C9" t="n">
         <v>23</v>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -566,6 +579,7 @@
       <c r="C10" t="n">
         <v>25</v>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -579,6 +593,7 @@
       <c r="C11" t="n">
         <v>14</v>
       </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -592,6 +607,7 @@
       <c r="C12" t="n">
         <v>25</v>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -605,6 +621,7 @@
       <c r="C13" t="n">
         <v>15</v>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -618,6 +635,7 @@
       <c r="C14" t="n">
         <v>23</v>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -631,6 +649,7 @@
       <c r="C15" t="n">
         <v>25</v>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -644,6 +663,7 @@
       <c r="C16" t="n">
         <v>10</v>
       </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -656,6 +676,23 @@
       </c>
       <c r="C17" t="n">
         <v>20</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>apio</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
